--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peerCreator.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peerCreator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB15E3-88AB-5D43-B32D-F96514F405C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
+    <workbookView xWindow="-36040" yWindow="2740" windowWidth="33600" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <r>
       <rPr>
@@ -401,18 +402,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'VPC ID of the Opposite End'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Description</t>
     </r>
   </si>
@@ -426,18 +415,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Do not exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Must provide a name</t>
     </r>
   </si>
   <si>
@@ -581,14 +558,58 @@
   </si>
   <si>
     <t>The description only supports Chinese, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer VPC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer VPC ID'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC ID of the Opposite End'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name must not be empty, it only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" and hyphen "-", and not more than 32 characters'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The description only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" , and not more than 256 characters'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name must not be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Must provide a name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" and hyphen "-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The description only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -609,6 +630,21 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,13 +668,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,171 +1026,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="50.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="50.88671875" style="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="50.85546875" style="1"/>
+    <col min="4" max="4" width="50.85546875" style="4"/>
+    <col min="5" max="16384" width="50.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1230,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B7 A9:B14 A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B8 A10:B15 A9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peerCreator.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peerCreator.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB15E3-88AB-5D43-B32D-F96514F405C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36040" yWindow="2740" windowWidth="33600" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <rPr>
@@ -343,126 +337,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>描述只支持中文、数字、大小写字母及英文下划线“_”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Region</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC of the End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC ID of the Opposite End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Do not exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Length cannot exceed 32 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Name only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description length cannot exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description only supports Chinese, numbers, upper case and lower case letters and English underline “_”</t>
     </r>
   </si>
   <si>
@@ -553,22 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The name cannot be null; it only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through “-”, with at most 32 characters'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The description only supports Chinese, numbers, upper case and lower case letters and English underline “_”, with at most 256 characters'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改意见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peer VPC ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPC ID of the Opposite End'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The name must not be empty, it only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" and hyphen "-", and not more than 32 characters'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,23 +447,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Must provide a name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The name only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" and hyphen "-"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">The description only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Do not exceed 256 characters</t>
+  </si>
+  <si>
+    <t>'Length cannot exceed 32 characters</t>
+  </si>
+  <si>
+    <t>Description length cannot exceed 256 characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,6 +519,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -668,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -687,6 +565,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,204 +919,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="50.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="50.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="50.85546875" style="1"/>
-    <col min="4" max="4" width="50.85546875" style="4"/>
-    <col min="5" max="16384" width="50.85546875" style="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" style="1"/>
+    <col min="3" max="3" width="50.88671875" style="7"/>
+    <col min="4" max="4" width="50.88671875" style="4"/>
+    <col min="5" max="16384" width="50.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="C14" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
